--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2267886.162928506</v>
+        <v>-2270743.034063172</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.396723986041543</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>57.08569488870615</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368123</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>94.211286536274</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>121.6042427762961</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>149.4323858549472</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553077</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.83599980742062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.66771825150651</v>
+        <v>222.2779859903968</v>
       </c>
       <c r="C5" t="n">
         <v>299.9154604304238</v>
@@ -911,10 +911,10 @@
         <v>12.70889480163085</v>
       </c>
       <c r="H5" t="n">
-        <v>299.9154604304238</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>110.4767683580351</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>149.9128787522683</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.7413030857667</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.83194554107057</v>
+        <v>98.83194554107058</v>
       </c>
       <c r="I6" t="n">
-        <v>41.61395130777601</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.9907462632476</v>
+        <v>13.99074626324762</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.9048709334797</v>
       </c>
       <c r="T6" t="n">
         <v>194.5708071230249</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8500775939488</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>154.4098919399004</v>
       </c>
       <c r="X6" t="n">
-        <v>27.69460544414</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8274708134053</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.8825238068737</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.460599772379</v>
       </c>
       <c r="J7" t="n">
-        <v>11.09912598139579</v>
+        <v>11.0991259813958</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>203.739817301814</v>
       </c>
       <c r="T7" t="n">
-        <v>222.9742347357805</v>
+        <v>155.002950638642</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2555652540334</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>207.1406868940744</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.48824835794966</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>68.49175063513181</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>116.5446615659171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>32.23241796953478</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>166.8892976061572</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>189.2380031216283</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>118.4817021252623</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>250.2160529405274</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.24750433886444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>41.1667312069662</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>134.7910873020739</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,22 +2555,22 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560535</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G28" t="n">
-        <v>152.2221689967083</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>106.9977768135424</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560535</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
-        <v>126.9263824507421</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>24.2715008497939</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3083,13 +3083,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3955,7 +3955,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
         <v>262.2383508445512</v>
@@ -3964,7 +3964,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897905</v>
+        <v>388.8228542207815</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0020469733056</v>
+        <v>388.8228542207815</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0020469733056</v>
+        <v>388.8228542207815</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>388.8228542207815</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>199.4030692042963</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678515</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058987</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079191</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644764</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020278</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>738.6222485201486</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823981</v>
+        <v>578.2426392372666</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823981</v>
+        <v>578.2426392372666</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823981</v>
+        <v>388.8228542207815</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659133</v>
+        <v>388.8228542207815</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659133</v>
+        <v>388.8228542207815</v>
       </c>
       <c r="X2" t="n">
-        <v>210.8831693494284</v>
+        <v>388.8228542207815</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494284</v>
+        <v>388.8228542207815</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323103</v>
+        <v>437.8499951878908</v>
       </c>
       <c r="C3" t="n">
-        <v>371.2627786323103</v>
+        <v>263.3969659067638</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2627786323103</v>
+        <v>263.3969659067638</v>
       </c>
       <c r="E3" t="n">
-        <v>212.0253236268548</v>
+        <v>263.3969659067638</v>
       </c>
       <c r="F3" t="n">
-        <v>212.0253236268548</v>
+        <v>116.8624079336488</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>116.8624079336488</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140251</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.500058754661</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017076</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>627.269780204376</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>627.269780204376</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>627.269780204376</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487952</v>
+        <v>627.269780204376</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487952</v>
+        <v>627.269780204376</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323103</v>
+        <v>437.8499951878908</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323103</v>
+        <v>437.8499951878908</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.8987254594814</v>
+        <v>189.6143138020712</v>
       </c>
       <c r="C4" t="n">
-        <v>296.9625425315745</v>
+        <v>189.6143138020712</v>
       </c>
       <c r="D4" t="n">
-        <v>296.9625425315745</v>
+        <v>189.6143138020712</v>
       </c>
       <c r="E4" t="n">
-        <v>296.9625425315745</v>
+        <v>189.6143138020712</v>
       </c>
       <c r="F4" t="n">
-        <v>296.9625425315745</v>
+        <v>189.6143138020712</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>38.67250990818519</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>38.67250990818519</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818519</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>88.2958943459425</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>100.3335179349388</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692153</v>
+        <v>285.9838492295959</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287299</v>
+        <v>471.634180524253</v>
       </c>
       <c r="O4" t="n">
-        <v>750.10234866528</v>
+        <v>634.3723839608033</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="U4" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="V4" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="W4" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="X4" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="Y4" t="n">
-        <v>465.8987254594814</v>
+        <v>371.2627786323109</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>952.6107336370742</v>
+        <v>761.2585194225398</v>
       </c>
       <c r="C5" t="n">
-        <v>649.6658241113935</v>
+        <v>458.3136098968593</v>
       </c>
       <c r="D5" t="n">
-        <v>346.7209145857128</v>
+        <v>155.3687003711787</v>
       </c>
       <c r="E5" t="n">
-        <v>346.7209145857128</v>
+        <v>155.3687003711787</v>
       </c>
       <c r="F5" t="n">
-        <v>339.7754138365094</v>
+        <v>148.4231996219752</v>
       </c>
       <c r="G5" t="n">
-        <v>326.9381463601146</v>
+        <v>135.5859321455804</v>
       </c>
       <c r="H5" t="n">
-        <v>23.9932368344339</v>
+        <v>135.5859321455804</v>
       </c>
       <c r="I5" t="n">
         <v>23.9932368344339</v>
       </c>
       <c r="J5" t="n">
-        <v>62.70545777823924</v>
+        <v>62.70545777823918</v>
       </c>
       <c r="K5" t="n">
         <v>171.4635601109399</v>
       </c>
       <c r="L5" t="n">
-        <v>343.2893649618541</v>
+        <v>343.2893649618539</v>
       </c>
       <c r="M5" t="n">
-        <v>566.1481175907729</v>
+        <v>566.148117590773</v>
       </c>
       <c r="N5" t="n">
-        <v>797.2267662077134</v>
+        <v>797.2267662077135</v>
       </c>
       <c r="O5" t="n">
         <v>1002.092520230226</v>
@@ -4592,25 +4592,25 @@
         <v>1199.661841721695</v>
       </c>
       <c r="S5" t="n">
-        <v>1048.234691466879</v>
+        <v>1199.661841721695</v>
       </c>
       <c r="T5" t="n">
-        <v>1048.234691466879</v>
+        <v>985.7817375946579</v>
       </c>
       <c r="U5" t="n">
-        <v>1048.234691466879</v>
+        <v>985.7817375946579</v>
       </c>
       <c r="V5" t="n">
-        <v>1048.234691466879</v>
+        <v>985.7817375946579</v>
       </c>
       <c r="W5" t="n">
-        <v>1048.234691466879</v>
+        <v>985.7817375946579</v>
       </c>
       <c r="X5" t="n">
-        <v>1048.234691466879</v>
+        <v>985.7817375946579</v>
       </c>
       <c r="Y5" t="n">
-        <v>1048.234691466879</v>
+        <v>985.7817375946579</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471.6297920845666</v>
+        <v>457.5139691422999</v>
       </c>
       <c r="C6" t="n">
-        <v>471.6297920845666</v>
+        <v>283.0609398611728</v>
       </c>
       <c r="D6" t="n">
-        <v>471.6297920845666</v>
+        <v>283.0609398611728</v>
       </c>
       <c r="E6" t="n">
-        <v>312.3923370791111</v>
+        <v>123.8234848557173</v>
       </c>
       <c r="F6" t="n">
-        <v>165.8577791059961</v>
+        <v>123.8234848557173</v>
       </c>
       <c r="G6" t="n">
-        <v>165.8577791059961</v>
+        <v>123.8234848557173</v>
       </c>
       <c r="H6" t="n">
-        <v>66.02753108471271</v>
+        <v>23.9932368344339</v>
       </c>
       <c r="I6" t="n">
         <v>23.9932368344339</v>
       </c>
       <c r="J6" t="n">
-        <v>28.23212346630827</v>
+        <v>28.23212346630824</v>
       </c>
       <c r="K6" t="n">
-        <v>115.7590630965574</v>
+        <v>113.6318806050352</v>
       </c>
       <c r="L6" t="n">
-        <v>412.675368922677</v>
+        <v>274.7849342178226</v>
       </c>
       <c r="M6" t="n">
-        <v>620.0902495625882</v>
+        <v>482.1998148577338</v>
       </c>
       <c r="N6" t="n">
-        <v>847.4034298265456</v>
+        <v>709.5129951216911</v>
       </c>
       <c r="O6" t="n">
-        <v>1033.130785334929</v>
+        <v>895.2403506300745</v>
       </c>
       <c r="P6" t="n">
-        <v>1162.860295900027</v>
+        <v>1024.969861195173</v>
       </c>
       <c r="Q6" t="n">
         <v>1199.661841721695</v>
@@ -4671,25 +4671,25 @@
         <v>1185.529774789122</v>
       </c>
       <c r="S6" t="n">
-        <v>1185.529774789122</v>
+        <v>1038.151117280556</v>
       </c>
       <c r="T6" t="n">
-        <v>988.9936059779858</v>
+        <v>841.6149484694203</v>
       </c>
       <c r="U6" t="n">
-        <v>988.9936059779858</v>
+        <v>613.4835569603811</v>
       </c>
       <c r="V6" t="n">
-        <v>753.841497746243</v>
+        <v>613.4835569603811</v>
       </c>
       <c r="W6" t="n">
-        <v>499.6041410180414</v>
+        <v>457.5139691422999</v>
       </c>
       <c r="X6" t="n">
-        <v>471.6297920845666</v>
+        <v>457.5139691422999</v>
       </c>
       <c r="Y6" t="n">
-        <v>471.6297920845666</v>
+        <v>457.5139691422999</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.7170719806977</v>
+        <v>457.1884869188578</v>
       </c>
       <c r="C7" t="n">
-        <v>203.7170719806977</v>
+        <v>457.1884869188578</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7170719806977</v>
+        <v>457.1884869188578</v>
       </c>
       <c r="E7" t="n">
-        <v>203.7170719806977</v>
+        <v>457.1884869188578</v>
       </c>
       <c r="F7" t="n">
-        <v>203.7170719806977</v>
+        <v>310.2985394209475</v>
       </c>
       <c r="G7" t="n">
-        <v>35.20447519948016</v>
+        <v>310.2985394209475</v>
       </c>
       <c r="H7" t="n">
-        <v>35.20447519948016</v>
+        <v>156.8818487069337</v>
       </c>
       <c r="I7" t="n">
         <v>35.20447519948016</v>
@@ -4735,10 +4735,10 @@
         <v>554.0889252722283</v>
       </c>
       <c r="N7" t="n">
-        <v>774.0478299776231</v>
+        <v>774.047829977623</v>
       </c>
       <c r="O7" t="n">
-        <v>961.199184338938</v>
+        <v>961.1991843389378</v>
       </c>
       <c r="P7" t="n">
         <v>1097.818817161699</v>
@@ -4750,25 +4750,25 @@
         <v>1108.972089218905</v>
       </c>
       <c r="S7" t="n">
-        <v>1108.972089218905</v>
+        <v>903.1742939645477</v>
       </c>
       <c r="T7" t="n">
-        <v>883.7455894857939</v>
+        <v>746.6056569558184</v>
       </c>
       <c r="U7" t="n">
-        <v>594.598553875659</v>
+        <v>746.6056569558184</v>
       </c>
       <c r="V7" t="n">
-        <v>594.598553875659</v>
+        <v>746.6056569558184</v>
       </c>
       <c r="W7" t="n">
-        <v>594.598553875659</v>
+        <v>457.1884869188578</v>
       </c>
       <c r="X7" t="n">
-        <v>385.3655368109374</v>
+        <v>457.1884869188578</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.3655368109374</v>
+        <v>457.1884869188578</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>120.4303730681362</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800311</v>
@@ -4805,7 +4805,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665546</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y8" t="n">
-        <v>2064.174362665546</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,19 +4884,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>570.4526592426272</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="C10" t="n">
-        <v>570.4526592426272</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="D10" t="n">
-        <v>570.4526592426272</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>230.6947320149385</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>83.80478451702814</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W10" t="n">
-        <v>570.4526592426272</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X10" t="n">
-        <v>570.4526592426272</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="Y10" t="n">
-        <v>570.4526592426272</v>
+        <v>378.6078255973316</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991043</v>
+        <v>1098.306025422647</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782942</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1786.311582407852</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1786.311582407852</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1496.894412370891</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>1268.904861472874</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>1279.954490252887</v>
       </c>
     </row>
     <row r="14">
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1400.559342807163</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909146</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,16 +6020,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,16 +6075,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
@@ -6254,13 +6254,13 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6269,7 +6269,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138411</v>
+        <v>1016.580456911439</v>
       </c>
       <c r="C28" t="n">
-        <v>916.2946447138411</v>
+        <v>847.6442739835325</v>
       </c>
       <c r="D28" t="n">
-        <v>766.1780053015053</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E28" t="n">
-        <v>618.2649117191122</v>
+        <v>549.6145409888038</v>
       </c>
       <c r="F28" t="n">
-        <v>471.3749642212018</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820186</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783226</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362685</v>
@@ -6491,19 +6491,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615996</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356187</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356187</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F31" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2172.545877962525</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1883.470651306723</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1628.786163100836</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1339.368993063875</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1111.379442165858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165858</v>
       </c>
     </row>
     <row r="32">
@@ -6734,7 +6734,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345471</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6871,37 +6871,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532431</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>88.1384991593182</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N4" t="n">
-        <v>99.67938739117002</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.65006546197361</v>
+        <v>52.65006546197364</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.148669183355636</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>137.134598195285</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.2832673786408</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>376.337117677439</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>89.65016877388432</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>219.3504585753911</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>356.0121383413519</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871004</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>68.85808267754801</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>17.56954934776701</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>19.25466862917592</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.1940863237798</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>124.7486535446742</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.357523492470591</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>96.94647126761581</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>36.30694539606358</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.5844758430729</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>45.04089287986341</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>13.30196929556058</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>145.1398665102855</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.59775584152678</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>193.1339494774942</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="32">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50775.64226829653</v>
+        <v>50775.6422682965</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
+        <v>60535.99497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60535.99497675044</v>
+      </c>
+      <c r="J2" t="n">
         <v>60535.99497675043</v>
       </c>
-      <c r="H2" t="n">
-        <v>60535.99497675043</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>60535.99497675045</v>
-      </c>
       <c r="K2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
@@ -26347,13 +26347,13 @@
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208459</v>
       </c>
       <c r="C3" t="n">
-        <v>124409.1910170502</v>
+        <v>124409.1910170497</v>
       </c>
       <c r="D3" t="n">
-        <v>353194.328045989</v>
+        <v>353194.3280459892</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245458</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854462</v>
+        <v>49064.94472854475</v>
       </c>
       <c r="K3" t="n">
-        <v>28925.55690223584</v>
+        <v>28925.55690223578</v>
       </c>
       <c r="L3" t="n">
         <v>105648.0699388663</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.839963681696515e-11</v>
+        <v>1.341667094883243e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195261.4364935756</v>
+        <v>195261.4364935754</v>
       </c>
       <c r="C4" t="n">
         <v>244130.5972050408</v>
@@ -26427,7 +26427,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184277</v>
@@ -26436,25 +26436,25 @@
         <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184287</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184284</v>
+        <v>13606.80811184282</v>
       </c>
       <c r="L4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493625</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493628</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493624</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
         <v>65928.22056882469</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-792828.497157738</v>
+        <v>-793188.580173456</v>
       </c>
       <c r="C6" t="n">
-        <v>-372889.8760510944</v>
+        <v>-372889.8760510939</v>
       </c>
       <c r="D6" t="n">
-        <v>-529709.1984439507</v>
+        <v>-529709.1984439509</v>
       </c>
       <c r="E6" t="n">
-        <v>-561678.7845835452</v>
+        <v>-561713.5225089808</v>
       </c>
       <c r="F6" t="n">
-        <v>-54193.34295899941</v>
+        <v>-54228.0808844351</v>
       </c>
       <c r="G6" t="n">
-        <v>-54193.34295899945</v>
+        <v>-54228.08088443516</v>
       </c>
       <c r="H6" t="n">
-        <v>-54193.34295899945</v>
+        <v>-54228.08088443513</v>
       </c>
       <c r="I6" t="n">
-        <v>-54193.3429589994</v>
+        <v>-54228.08088443513</v>
       </c>
       <c r="J6" t="n">
-        <v>-103258.2876875441</v>
+        <v>-103293.02561298</v>
       </c>
       <c r="K6" t="n">
-        <v>-83118.89986123532</v>
+        <v>-83153.63778667095</v>
       </c>
       <c r="L6" t="n">
         <v>-168831.7204278967</v>
@@ -26555,13 +26555,13 @@
         <v>-195790.9442179571</v>
       </c>
       <c r="N6" t="n">
-        <v>-63183.65048903033</v>
+        <v>-63183.65048903038</v>
       </c>
       <c r="O6" t="n">
         <v>-63183.65048903049</v>
       </c>
       <c r="P6" t="n">
-        <v>-63183.65048903038</v>
+        <v>-63183.65048903039</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>645.2183749841709</v>
+        <v>645.2183749841707</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
         <v>299.9154604304238</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.104995460212064e-13</v>
+        <v>1.677083868604054e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>96.74843407126616</v>
+        <v>96.74843407126571</v>
       </c>
       <c r="D3" t="n">
-        <v>288.8465171333684</v>
+        <v>288.8465171333685</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241345</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3898732641038</v>
+        <v>112.3898732641035</v>
       </c>
       <c r="D4" t="n">
-        <v>340.669371669615</v>
+        <v>340.6693716696151</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3898732641037</v>
+        <v>112.3898732641035</v>
       </c>
       <c r="L4" t="n">
-        <v>340.6693716696152</v>
+        <v>340.6693716696153</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>112.3898732641038</v>
+        <v>112.3898732641035</v>
       </c>
       <c r="L4" t="n">
-        <v>340.669371669615</v>
+        <v>340.6693716696151</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>88.09713583080323</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>78.58698288709074</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41.95250282950133</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550654</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714231</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>28.16600191465353</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377091</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>18.24739803715718</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.34308217384573</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288.066123411974</v>
+        <v>160.4558556730837</v>
       </c>
       <c r="C5" t="n">
-        <v>65.35743134058373</v>
+        <v>65.35743134058379</v>
       </c>
       <c r="D5" t="n">
-        <v>54.76758119025914</v>
+        <v>54.76758119025919</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>12.99514999566841</v>
+        <v>312.9106104260922</v>
       </c>
       <c r="I5" t="n">
-        <v>110.476768358035</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>149.9128787522683</v>
       </c>
       <c r="T5" t="n">
-        <v>211.7413030857667</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1381454907562</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.9556889604145</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>41.61395130777601</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>145.9048709334797</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8500775939488</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>97.28509122101923</v>
       </c>
       <c r="X6" t="n">
-        <v>178.0783797593375</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8274708134053</v>
       </c>
       <c r="H7" t="n">
-        <v>151.8825238068737</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.460599772379</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>124.9778162514038</v>
       </c>
       <c r="S7" t="n">
-        <v>203.739817301814</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>67.97128409713849</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2555652540334</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.56896849496272</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.2455933055309</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>343.0559521378221</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>29.88930108065206</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>134.0741820752694</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="E26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="F26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="T26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="U26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="V26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="W26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="U29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="V29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>1.286285363935999e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.286285363935999e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29803,13 +29803,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954487</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043125</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528641</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672895</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470027</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244297</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974685</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619227</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924588</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590854</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405035</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628874</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550082</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288822</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390168</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445827</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620023</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.925421811142</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276992</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604416</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820539</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784866</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181398</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>26.56419168967492</v>
       </c>
       <c r="I5" t="n">
-        <v>99.99912121237087</v>
+        <v>99.99912121237084</v>
       </c>
       <c r="J5" t="n">
         <v>220.1491580052775</v>
       </c>
       <c r="K5" t="n">
-        <v>329.9465200679105</v>
+        <v>329.9465200679104</v>
       </c>
       <c r="L5" t="n">
-        <v>409.3278340113148</v>
+        <v>409.3278340113147</v>
       </c>
       <c r="M5" t="n">
         <v>455.4560843675951</v>
       </c>
       <c r="N5" t="n">
-        <v>462.825839977339</v>
+        <v>462.8258399773389</v>
       </c>
       <c r="O5" t="n">
         <v>437.0333164949315</v>
       </c>
       <c r="P5" t="n">
-        <v>372.9978245052965</v>
+        <v>372.9978245052964</v>
       </c>
       <c r="Q5" t="n">
         <v>280.1058323279271</v>
@@ -31312,13 +31312,13 @@
         <v>162.9354723521585</v>
       </c>
       <c r="S5" t="n">
-        <v>59.10719083397707</v>
+        <v>59.10719083397706</v>
       </c>
       <c r="T5" t="n">
         <v>11.35454647836465</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2075074170803362</v>
+        <v>0.2075074170803361</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,10 +31361,10 @@
         <v>13.40349869542589</v>
       </c>
       <c r="I6" t="n">
-        <v>47.78268154363907</v>
+        <v>47.78268154363906</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1193303352267</v>
+        <v>131.1193303352266</v>
       </c>
       <c r="K6" t="n">
         <v>224.1038199225681</v>
@@ -31373,31 +31373,31 @@
         <v>301.335242015013</v>
       </c>
       <c r="M6" t="n">
-        <v>351.6440143663731</v>
+        <v>351.644014366373</v>
       </c>
       <c r="N6" t="n">
-        <v>360.9509850772297</v>
+        <v>360.9509850772296</v>
       </c>
       <c r="O6" t="n">
         <v>330.199633846852</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0143170760456</v>
+        <v>265.0143170760455</v>
       </c>
       <c r="Q6" t="n">
         <v>177.1550526937671</v>
       </c>
       <c r="R6" t="n">
-        <v>86.16708788939553</v>
+        <v>86.16708788939552</v>
       </c>
       <c r="S6" t="n">
         <v>25.77830017035813</v>
       </c>
       <c r="T6" t="n">
-        <v>5.593921571796725</v>
+        <v>5.593921571796724</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09130448702606195</v>
+        <v>0.09130448702606193</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,31 +31440,31 @@
         <v>10.34464870056589</v>
       </c>
       <c r="I7" t="n">
-        <v>34.98987515487931</v>
+        <v>34.9898751548793</v>
       </c>
       <c r="J7" t="n">
-        <v>82.26005413527699</v>
+        <v>82.26005413527697</v>
       </c>
       <c r="K7" t="n">
         <v>135.1785382343885</v>
       </c>
       <c r="L7" t="n">
-        <v>172.9819885982153</v>
+        <v>172.9819885982152</v>
       </c>
       <c r="M7" t="n">
-        <v>182.3852531123288</v>
+        <v>182.3852531123287</v>
       </c>
       <c r="N7" t="n">
         <v>178.0485394444025</v>
       </c>
       <c r="O7" t="n">
-        <v>164.4566441680966</v>
+        <v>164.4566441680965</v>
       </c>
       <c r="P7" t="n">
         <v>140.7210698490066</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.4279746226098</v>
+        <v>97.42797462260978</v>
       </c>
       <c r="R7" t="n">
         <v>52.3155751257657</v>
@@ -31473,10 +31473,10 @@
         <v>20.27678073515828</v>
       </c>
       <c r="T7" t="n">
-        <v>4.971354692500987</v>
+        <v>4.971354692500986</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0634641024574595</v>
+        <v>0.06346410245745948</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868222</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788355</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973023</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504118</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916013</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065995</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781483</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606293</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755149</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855714</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765007</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>74.03418926528977</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646089</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="N4" t="n">
-        <v>123.3445726863783</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>39.10325347859123</v>
+        <v>39.10325347859117</v>
       </c>
       <c r="K5" t="n">
         <v>109.8566690229299</v>
       </c>
       <c r="L5" t="n">
-        <v>173.5614190413276</v>
+        <v>173.5614190413275</v>
       </c>
       <c r="M5" t="n">
-        <v>225.1098511403224</v>
+        <v>225.1098511403223</v>
       </c>
       <c r="N5" t="n">
-        <v>233.4127763807481</v>
+        <v>233.412776380748</v>
       </c>
       <c r="O5" t="n">
-        <v>206.9351050732448</v>
+        <v>206.9351050732447</v>
       </c>
       <c r="P5" t="n">
         <v>141.7648287500269</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.80014245347766</v>
+        <v>57.8001424534776</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.28170366855997</v>
+        <v>4.281703668559942</v>
       </c>
       <c r="K6" t="n">
-        <v>88.41105013156475</v>
+        <v>86.26238094820908</v>
       </c>
       <c r="L6" t="n">
-        <v>299.9154604304238</v>
+        <v>162.7808622351388</v>
       </c>
       <c r="M6" t="n">
-        <v>209.5099804443548</v>
+        <v>209.5099804443547</v>
       </c>
       <c r="N6" t="n">
-        <v>229.6092729938964</v>
+        <v>229.6092729938963</v>
       </c>
       <c r="O6" t="n">
-        <v>187.6033894024076</v>
+        <v>187.6033894024075</v>
       </c>
       <c r="P6" t="n">
         <v>131.0399096617153</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.17327860774557</v>
+        <v>176.4565459863863</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,7 +35100,7 @@
         <v>200.5720138585314</v>
       </c>
       <c r="M7" t="n">
-        <v>221.9691300741694</v>
+        <v>221.9691300741693</v>
       </c>
       <c r="N7" t="n">
         <v>222.1807118236311</v>
@@ -35112,7 +35112,7 @@
         <v>137.9996291139001</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.26593137091541</v>
+        <v>11.2659313709154</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35267,7 +35267,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295185</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
